--- a/fontes_db/Prefeito, Vice-Prefeito e Secretários.xlsx
+++ b/fontes_db/Prefeito, Vice-Prefeito e Secretários.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{851250C2-6C2C-1A49-A96F-785F78216A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFEEF5-BD9D-6842-8DC5-3FE3B44482E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{F3AF64C1-871A-4B3C-AA00-3F8BCE453175}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -61,15 +61,6 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>Final2015-2016</t>
-  </si>
-  <si>
-    <t>Final2017-2018</t>
-  </si>
-  <si>
-    <t>Final 2019</t>
-  </si>
-  <si>
     <t>Political Party</t>
   </si>
   <si>
@@ -80,12 +71,6 @@
   </si>
   <si>
     <t>PV (2015) / MDB (2015-2018) / Sem partido (2018-2019)</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>2015-2019</t>
   </si>
   <si>
     <t>DANILO FUNKE LEME</t>
@@ -781,21 +766,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08428C68-64EC-4629-B537-DF577C07B684}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="7" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -811,1048 +797,823 @@
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6">
         <v>2019</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>2019</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
         <v>2019</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6">
         <v>2019</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6">
         <v>2019</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6">
         <v>2019</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="6">
         <v>2019</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6">
         <v>2019</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="6">
         <v>2019</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6">
         <v>2019</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6">
         <v>2019</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <v>2019</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>2019</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6">
         <v>2019</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6">
         <v>2019</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" s="6">
         <v>2019</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6">
         <v>2019</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6">
         <v>2019</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6">
         <v>2019</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6">
         <v>2019</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6">
         <v>2019</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D27" s="6">
         <v>2019</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="6">
         <v>2019</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D29" s="6">
         <v>2019</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D30" s="6">
         <v>2019</v>
       </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="6">
         <v>2019</v>
       </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D32" s="6">
         <v>2019</v>
       </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D33" s="6">
         <v>2019</v>
       </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D34" s="6">
         <v>2019</v>
       </c>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D35" s="6">
         <v>2019</v>
       </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D36" s="6">
         <v>2019</v>
       </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D37" s="6">
         <v>2019</v>
       </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D38" s="6">
         <v>2019</v>
       </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D39" s="6">
         <v>2019</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6">
         <v>2019</v>
       </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D41" s="6">
         <v>2019</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6">
         <v>2019</v>
       </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D43" s="6">
         <v>2019</v>
       </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D44" s="6">
         <v>2019</v>
       </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D45" s="6">
         <v>2019</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D46" s="6">
         <v>2019</v>
       </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D47" s="6">
         <v>2019</v>
       </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D48" s="6">
         <v>2019</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D49" s="6">
         <v>2019</v>
       </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>34</v>
+      <c r="E49" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
